--- a/CodeSystem-kin.xlsx
+++ b/CodeSystem-kin.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T05:18:50+00:00</t>
+    <t>2021-10-11T05:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kin.xlsx
+++ b/CodeSystem-kin.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T05:19:03+00:00</t>
+    <t>2022-04-22T03:07:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kin.xlsx
+++ b/CodeSystem-kin.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T03:07:53+00:00</t>
+    <t>2022-04-22T03:08:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
